--- a/autoPortTest/testFile/case/userCase.xlsx
+++ b/autoPortTest/testFile/case/userCase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" activeTab="3"/>
+    <workbookView xWindow="-200" yWindow="460" windowWidth="38400" windowHeight="14240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="4" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="ico" sheetId="2" r:id="rId3"/>
     <sheet name="wallet" sheetId="3" r:id="rId4"/>
     <sheet name="manual_exchange" sheetId="5" r:id="rId5"/>
+    <sheet name="工作表1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="324">
   <si>
     <t>case_name</t>
   </si>
@@ -918,10 +919,6 @@
   </si>
   <si>
     <t>coin_sell_fee</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete_all</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1040,10 +1037,6 @@
   </si>
   <si>
     <t>traded_at_null_transfer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin_transfer_price</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1111,6 +1104,203 @@
   </si>
   <si>
     <t>transfer_from_name_null_transfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH/CNY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_buy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_sell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_transfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>他人的钱包</t>
+    <rPh sb="0" eb="1">
+      <t>ta</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qian bao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_empty_buy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_empty</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange_empty_buy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_pair_empty_buy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_price_empty_buy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_price_type_empty_buy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount_empty_buy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deducted_empty_buy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_fee_empty_buy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_fee_type_empty_buy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>traded_at_empty_buy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_empty_sell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange_empty_sell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_pair_empty_sell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_price_empty_sell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_price_type_empty_sell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount_empty_sell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deducted_empty_sell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_fee_type_empty_sell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_empty_transfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfer_from_empty_transfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfer_from_name_empty_transfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfer_to_empty_transfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_price_type_empty_transfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount_empty_transfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deducted_empty_transfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_fee_empty_transfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_fee_type_empty_transfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>traded_at_empty_transfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfer_to_name_empty_transfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>error pair</t>
+  </si>
+  <si>
+    <t>error trade_type</t>
+  </si>
+  <si>
+    <t>traded_at_empty_sell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_transfer_price</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>547980561@qq.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitcoin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_all_eth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_all_btc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1121,7 +1311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1172,6 +1362,11 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1317,7 +1512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1358,6 +1553,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2248,7 +2446,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2265,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>318</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -2285,7 +2483,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>97</v>
+        <v>319</v>
       </c>
       <c r="D2" s="9">
         <v>123456</v>
@@ -3465,7 +3663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+    <sheetView zoomScale="175" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -4221,10 +4419,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4249,19 +4450,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>204</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>207</v>
@@ -4279,13 +4480,13 @@
         <v>210</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>211</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>15</v>
@@ -4296,7 +4497,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
         <v>206</v>
@@ -4322,8 +4523,8 @@
       <c r="I2">
         <v>12.32</v>
       </c>
-      <c r="J2" t="b">
-        <v>1</v>
+      <c r="J2" t="s">
+        <v>320</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -4335,7 +4536,7 @@
         <v>1534128637</v>
       </c>
       <c r="O2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -4346,16 +4547,13 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>78</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>212</v>
@@ -4372,8 +4570,8 @@
       <c r="I3">
         <v>12.32</v>
       </c>
-      <c r="J3" t="b">
-        <v>1</v>
+      <c r="J3" t="s">
+        <v>320</v>
       </c>
       <c r="K3">
         <v>10</v>
@@ -4385,30 +4583,30 @@
         <v>1534128637</v>
       </c>
       <c r="O3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
         <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1</v>
+        <v>321</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
         <v>213</v>
@@ -4422,8 +4620,8 @@
       <c r="I4">
         <v>12.32</v>
       </c>
-      <c r="J4" t="b">
-        <v>1</v>
+      <c r="J4" t="s">
+        <v>320</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -4432,33 +4630,33 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>1534128639</v>
+        <v>1534128637</v>
       </c>
       <c r="O4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P4">
         <v>0</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1</v>
+        <v>321</v>
       </c>
       <c r="E5" t="s">
         <v>212</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="G5">
         <v>12.1</v>
@@ -4469,8 +4667,8 @@
       <c r="I5">
         <v>12.32</v>
       </c>
-      <c r="J5" t="b">
-        <v>1</v>
+      <c r="J5" t="s">
+        <v>320</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -4479,39 +4677,39 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>1534128640</v>
+        <v>1534128637</v>
       </c>
       <c r="O5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>218</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
         <v>206</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
         <v>213</v>
       </c>
-      <c r="G6" t="s">
-        <v>78</v>
+      <c r="G6">
+        <v>12.1</v>
       </c>
       <c r="H6" s="9">
         <v>1</v>
@@ -4519,8 +4717,8 @@
       <c r="I6">
         <v>12.32</v>
       </c>
-      <c r="J6" t="b">
-        <v>1</v>
+      <c r="J6" t="s">
+        <v>320</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -4529,33 +4727,27 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>1534128641</v>
+        <v>1534128639</v>
       </c>
       <c r="O6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P6">
         <v>0</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>212</v>
       </c>
       <c r="F7" t="s">
         <v>213</v>
@@ -4563,14 +4755,14 @@
       <c r="G7">
         <v>12.1</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>78</v>
+      <c r="H7" s="9">
+        <v>1</v>
       </c>
       <c r="I7">
         <v>12.32</v>
       </c>
-      <c r="J7" t="b">
-        <v>1</v>
+      <c r="J7" t="s">
+        <v>320</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -4579,27 +4771,24 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>1534128642</v>
+        <v>1534128639</v>
       </c>
       <c r="O7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P7">
         <v>0</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
         <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
@@ -4608,7 +4797,7 @@
         <v>212</v>
       </c>
       <c r="F8" t="s">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="G8">
         <v>12.1</v>
@@ -4616,11 +4805,11 @@
       <c r="H8" s="9">
         <v>1</v>
       </c>
-      <c r="I8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
+      <c r="I8">
+        <v>12.32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>320</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -4629,27 +4818,27 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>1534128643</v>
+        <v>1534128640</v>
       </c>
       <c r="O8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
@@ -4657,9 +4846,6 @@
       <c r="E9" t="s">
         <v>212</v>
       </c>
-      <c r="F9" t="s">
-        <v>213</v>
-      </c>
       <c r="G9">
         <v>12.1</v>
       </c>
@@ -4670,7 +4856,7 @@
         <v>12.32</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -4679,27 +4865,27 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>1534128644</v>
+        <v>1534128640</v>
       </c>
       <c r="O9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>222</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B10" t="s">
         <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -4710,43 +4896,46 @@
       <c r="F10" t="s">
         <v>213</v>
       </c>
-      <c r="G10">
-        <v>10</v>
+      <c r="G10" t="s">
+        <v>78</v>
       </c>
       <c r="H10" s="9">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>78</v>
+        <v>12.32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>320</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="N10">
-        <v>1534128645</v>
+        <v>1534128641</v>
       </c>
       <c r="O10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P10">
         <v>0</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
@@ -4757,43 +4946,43 @@
       <c r="F11" t="s">
         <v>213</v>
       </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
       <c r="H11" s="9">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>10</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
+        <v>12.32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>320</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
-      <c r="L11" t="s">
-        <v>78</v>
+      <c r="L11">
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>1534128646</v>
+        <v>1534128641</v>
       </c>
       <c r="O11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P11">
         <v>0</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B12" t="s">
         <v>206</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="D12" s="9">
         <v>1</v>
@@ -4805,16 +4994,16 @@
         <v>213</v>
       </c>
       <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1</v>
+        <v>12.1</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="I12">
-        <v>10</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
+        <v>12.32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>320</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -4822,31 +5011,31 @@
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="N12" t="s">
-        <v>78</v>
+      <c r="N12">
+        <v>1534128642</v>
       </c>
       <c r="O12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="D13" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>212</v>
@@ -4857,14 +5046,11 @@
       <c r="G13">
         <v>12.1</v>
       </c>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
       <c r="I13">
         <v>12.32</v>
       </c>
-      <c r="J13" t="b">
-        <v>1</v>
+      <c r="J13" t="s">
+        <v>320</v>
       </c>
       <c r="K13">
         <v>10</v>
@@ -4873,33 +5059,33 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <v>1534128637</v>
+        <v>1534128642</v>
       </c>
       <c r="O13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B14" t="s">
         <v>206</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="D14" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="F14" t="s">
         <v>213</v>
@@ -4910,11 +5096,11 @@
       <c r="H14" s="9">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>12.32</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
+      <c r="I14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" t="s">
+        <v>320</v>
       </c>
       <c r="K14">
         <v>10</v>
@@ -4923,33 +5109,36 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>1534128639</v>
+        <v>1534128643</v>
       </c>
       <c r="O14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P14">
         <v>0</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="B15" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="D15" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>212</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="G15">
         <v>12.1</v>
@@ -4957,11 +5146,8 @@
       <c r="H15" s="9">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>12.32</v>
-      </c>
-      <c r="J15" t="b">
-        <v>1</v>
+      <c r="J15" t="s">
+        <v>320</v>
       </c>
       <c r="K15">
         <v>10</v>
@@ -4970,30 +5156,30 @@
         <v>1</v>
       </c>
       <c r="N15">
-        <v>1534128640</v>
+        <v>1534128643</v>
       </c>
       <c r="O15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B16" t="s">
         <v>206</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="D16" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>212</v>
@@ -5001,8 +5187,8 @@
       <c r="F16" t="s">
         <v>213</v>
       </c>
-      <c r="G16" t="s">
-        <v>78</v>
+      <c r="G16">
+        <v>12.1</v>
       </c>
       <c r="H16" s="9">
         <v>1</v>
@@ -5010,8 +5196,8 @@
       <c r="I16">
         <v>12.32</v>
       </c>
-      <c r="J16" t="b">
-        <v>1</v>
+      <c r="J16" t="s">
+        <v>78</v>
       </c>
       <c r="K16">
         <v>10</v>
@@ -5020,30 +5206,30 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <v>1534128641</v>
+        <v>1534128644</v>
       </c>
       <c r="O16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="B17" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="D17" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>212</v>
@@ -5054,15 +5240,12 @@
       <c r="G17">
         <v>12.1</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>78</v>
+      <c r="H17" s="9">
+        <v>1</v>
       </c>
       <c r="I17">
         <v>12.32</v>
       </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
       <c r="K17">
         <v>10</v>
       </c>
@@ -5070,30 +5253,30 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <v>1534128642</v>
+        <v>1534128644</v>
       </c>
       <c r="O17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s">
         <v>206</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="D18" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>212</v>
@@ -5102,48 +5285,45 @@
         <v>213</v>
       </c>
       <c r="G18">
-        <v>12.1</v>
+        <v>10</v>
       </c>
       <c r="H18" s="9">
         <v>1</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>320</v>
+      </c>
+      <c r="K18" t="s">
         <v>78</v>
       </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>10</v>
-      </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="N18">
-        <v>1534128643</v>
+        <v>1534128645</v>
       </c>
       <c r="O18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P18">
         <v>0</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="D19" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>212</v>
@@ -5152,48 +5332,42 @@
         <v>213</v>
       </c>
       <c r="G19">
-        <v>12.1</v>
+        <v>10</v>
       </c>
       <c r="H19" s="9">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>12.32</v>
+        <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
-      </c>
-      <c r="K19">
-        <v>10</v>
+        <v>320</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="N19">
-        <v>1534128644</v>
+        <v>1534128645</v>
       </c>
       <c r="O19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P19">
         <v>0</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B20" t="s">
         <v>206</v>
       </c>
       <c r="C20" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="D20" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
         <v>212</v>
@@ -5210,20 +5384,20 @@
       <c r="I20">
         <v>10</v>
       </c>
-      <c r="J20" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="J20" t="s">
+        <v>320</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="L20" t="s">
         <v>78</v>
       </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
       <c r="N20">
-        <v>1534128645</v>
+        <v>1534128646</v>
       </c>
       <c r="O20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -5231,16 +5405,16 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="D21" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>212</v>
@@ -5257,20 +5431,17 @@
       <c r="I21">
         <v>10</v>
       </c>
-      <c r="J21" t="b">
-        <v>1</v>
+      <c r="J21" t="s">
+        <v>320</v>
       </c>
       <c r="K21">
         <v>10</v>
-      </c>
-      <c r="L21" t="s">
-        <v>78</v>
       </c>
       <c r="N21">
         <v>1534128646</v>
       </c>
       <c r="O21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -5278,16 +5449,16 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s">
         <v>206</v>
       </c>
       <c r="C22" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="D22" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>212</v>
@@ -5304,8 +5475,8 @@
       <c r="I22">
         <v>10</v>
       </c>
-      <c r="J22" t="b">
-        <v>1</v>
+      <c r="J22" t="s">
+        <v>320</v>
       </c>
       <c r="K22">
         <v>10</v>
@@ -5317,7 +5488,7 @@
         <v>78</v>
       </c>
       <c r="O22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -5328,34 +5499,34 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="D23" s="9">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>212</v>
       </c>
       <c r="F23" t="s">
         <v>213</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H23" s="9">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>12.32</v>
-      </c>
-      <c r="J23" t="b">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="J23" t="s">
+        <v>320</v>
       </c>
       <c r="K23">
         <v>10</v>
@@ -5363,43 +5534,37 @@
       <c r="L23">
         <v>1</v>
       </c>
-      <c r="M23" t="s">
-        <v>268</v>
-      </c>
-      <c r="N23">
-        <v>1534128637</v>
-      </c>
       <c r="O23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s">
         <v>206</v>
       </c>
       <c r="C24" t="s">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="D24" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="F24" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>12.1</v>
       </c>
       <c r="H24" s="9">
         <v>1</v>
@@ -5408,7 +5573,7 @@
         <v>12.32</v>
       </c>
       <c r="J24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>10</v>
@@ -5416,43 +5581,37 @@
       <c r="L24">
         <v>1</v>
       </c>
-      <c r="M24" t="s">
-        <v>268</v>
-      </c>
       <c r="N24">
-        <v>1534128639</v>
+        <v>1534128637</v>
       </c>
       <c r="O24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="B25" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="D25" s="9">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>212</v>
       </c>
       <c r="F25" t="s">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>12.1</v>
       </c>
       <c r="H25" s="9">
         <v>1</v>
@@ -5461,7 +5620,7 @@
         <v>12.32</v>
       </c>
       <c r="J25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>10</v>
@@ -5469,25 +5628,22 @@
       <c r="L25">
         <v>1</v>
       </c>
-      <c r="M25" t="s">
-        <v>268</v>
-      </c>
       <c r="N25">
-        <v>1534128640</v>
+        <v>1534128637</v>
       </c>
       <c r="O25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s">
         <v>206</v>
@@ -5496,16 +5652,16 @@
         <v>214</v>
       </c>
       <c r="D26" s="9">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
       </c>
       <c r="F26" t="s">
-        <v>270</v>
-      </c>
-      <c r="G26" t="s">
-        <v>78</v>
+        <v>213</v>
+      </c>
+      <c r="G26">
+        <v>12.1</v>
       </c>
       <c r="H26" s="9">
         <v>1</v>
@@ -5514,7 +5670,7 @@
         <v>12.32</v>
       </c>
       <c r="J26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>10</v>
@@ -5522,52 +5678,43 @@
       <c r="L26">
         <v>1</v>
       </c>
-      <c r="M26" t="s">
-        <v>268</v>
-      </c>
       <c r="N26">
-        <v>1534128641</v>
+        <v>1534128639</v>
       </c>
       <c r="O26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P26">
         <v>0</v>
-      </c>
-      <c r="Q26" s="8" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="B27" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>214</v>
       </c>
       <c r="D27" s="9">
-        <v>3</v>
-      </c>
-      <c r="E27">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>78</v>
+        <v>12.1</v>
+      </c>
+      <c r="H27" s="9">
+        <v>1</v>
       </c>
       <c r="I27">
         <v>12.32</v>
       </c>
       <c r="J27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>10</v>
@@ -5575,25 +5722,19 @@
       <c r="L27">
         <v>1</v>
       </c>
-      <c r="M27" t="s">
-        <v>268</v>
-      </c>
       <c r="N27">
-        <v>1534128642</v>
+        <v>1534128639</v>
       </c>
       <c r="O27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P27">
         <v>0</v>
-      </c>
-      <c r="Q27" s="8" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s">
         <v>206</v>
@@ -5602,25 +5743,25 @@
         <v>214</v>
       </c>
       <c r="D28" s="9">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>212</v>
       </c>
       <c r="F28" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>12.1</v>
       </c>
       <c r="H28" s="9">
         <v>1</v>
       </c>
-      <c r="I28" t="s">
-        <v>78</v>
+      <c r="I28">
+        <v>12.32</v>
       </c>
       <c r="J28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <v>10</v>
@@ -5628,43 +5769,37 @@
       <c r="L28">
         <v>1</v>
       </c>
-      <c r="M28" t="s">
-        <v>268</v>
-      </c>
       <c r="N28">
-        <v>1534128643</v>
+        <v>1534128640</v>
       </c>
       <c r="O28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>214</v>
       </c>
       <c r="D29" s="9">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>270</v>
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>212</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>12.1</v>
       </c>
       <c r="H29" s="9">
         <v>1</v>
@@ -5672,8 +5807,8 @@
       <c r="I29">
         <v>12.32</v>
       </c>
-      <c r="J29" t="s">
-        <v>78</v>
+      <c r="J29" t="b">
+        <v>1</v>
       </c>
       <c r="K29">
         <v>10</v>
@@ -5681,25 +5816,22 @@
       <c r="L29">
         <v>1</v>
       </c>
-      <c r="M29" t="s">
-        <v>268</v>
-      </c>
       <c r="N29">
-        <v>1534128644</v>
+        <v>1534128640</v>
       </c>
       <c r="O29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>222</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s">
         <v>206</v>
@@ -5708,98 +5840,95 @@
         <v>214</v>
       </c>
       <c r="D30" s="9">
-        <v>3</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>212</v>
       </c>
       <c r="F30" t="s">
-        <v>270</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
+        <v>213</v>
+      </c>
+      <c r="G30" t="s">
+        <v>78</v>
       </c>
       <c r="H30" s="9">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>12.32</v>
       </c>
       <c r="J30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" t="s">
-        <v>78</v>
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>10</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
-      <c r="M30" t="s">
-        <v>268</v>
-      </c>
       <c r="N30">
-        <v>1534128645</v>
+        <v>1534128641</v>
       </c>
       <c r="O30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P30">
         <v>0</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>214</v>
       </c>
       <c r="D31" s="9">
-        <v>3</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>212</v>
       </c>
       <c r="F31" t="s">
-        <v>270</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
+        <v>213</v>
       </c>
       <c r="H31" s="9">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>10</v>
+        <v>12.32</v>
       </c>
       <c r="J31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <v>10</v>
       </c>
-      <c r="L31" t="s">
-        <v>78</v>
-      </c>
-      <c r="M31" t="s">
-        <v>268</v>
+      <c r="L31">
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>1534128646</v>
+        <v>1534128641</v>
       </c>
       <c r="O31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P31">
         <v>0</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B32" t="s">
         <v>206</v>
@@ -5808,25 +5937,25 @@
         <v>214</v>
       </c>
       <c r="D32" s="9">
-        <v>3</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>212</v>
       </c>
       <c r="F32" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32" s="9">
-        <v>1</v>
+        <v>12.1</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="I32">
-        <v>10</v>
+        <v>12.32</v>
       </c>
       <c r="J32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <v>10</v>
@@ -5834,52 +5963,46 @@
       <c r="L32">
         <v>1</v>
       </c>
-      <c r="M32" t="s">
-        <v>268</v>
-      </c>
-      <c r="N32" t="s">
-        <v>78</v>
+      <c r="N32">
+        <v>1534128642</v>
       </c>
       <c r="O32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>214</v>
       </c>
       <c r="D33" s="9">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>212</v>
       </c>
       <c r="F33" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33" s="9">
-        <v>1</v>
+        <v>12.1</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>12.32</v>
       </c>
       <c r="J33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <v>10</v>
@@ -5887,233 +6010,234 @@
       <c r="L33">
         <v>1</v>
       </c>
-      <c r="M33" t="s">
-        <v>269</v>
-      </c>
       <c r="N33">
-        <v>1534128646</v>
+        <v>1534128642</v>
       </c>
       <c r="O33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
-      <c r="Q33" s="8"/>
+      <c r="Q33" s="8" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="B34" t="s">
         <v>206</v>
       </c>
       <c r="C34" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D34" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F34" t="s">
         <v>213</v>
       </c>
       <c r="G34">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="H34" s="9">
         <v>1</v>
       </c>
-      <c r="I34">
-        <v>10</v>
+      <c r="I34" t="s">
+        <v>78</v>
       </c>
       <c r="J34" t="b">
         <v>1</v>
       </c>
       <c r="K34">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="N34">
-        <v>1534128637</v>
+        <v>1534128643</v>
       </c>
       <c r="O34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
-      <c r="Q34" s="8"/>
+      <c r="Q34" s="8" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D35" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="F35" t="s">
         <v>213</v>
       </c>
       <c r="G35">
-        <v>1200</v>
+        <v>12.1</v>
       </c>
       <c r="H35" s="9">
-        <v>2</v>
-      </c>
-      <c r="I35">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>1534128637</v>
+        <v>1534128643</v>
       </c>
       <c r="O35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
-      <c r="Q35" s="8"/>
+      <c r="Q35" s="8" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="B36" t="s">
         <v>206</v>
       </c>
       <c r="C36" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D36" s="9">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="F36" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G36">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="H36" s="9">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>10</v>
-      </c>
-      <c r="J36" t="b">
-        <v>1</v>
+        <v>12.32</v>
+      </c>
+      <c r="J36" t="s">
+        <v>78</v>
       </c>
       <c r="K36">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="N36">
-        <v>1534128637</v>
+        <v>1534128644</v>
       </c>
       <c r="O36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
-      <c r="Q36" s="8"/>
+      <c r="Q36" s="8" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>232</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D37" s="9">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="F37" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G37">
-        <v>1200</v>
+        <v>12.1</v>
       </c>
       <c r="H37" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>10</v>
-      </c>
-      <c r="J37" t="b">
-        <v>0</v>
+        <v>12.32</v>
       </c>
       <c r="K37">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>1534128637</v>
+        <v>1534128644</v>
       </c>
       <c r="O37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
-      <c r="Q37" s="8"/>
+      <c r="Q37" s="8" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="B38" t="s">
         <v>206</v>
       </c>
       <c r="C38" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D38" s="9">
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="F38" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G38">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H38" s="9">
         <v>1</v>
@@ -6124,90 +6248,1787 @@
       <c r="J38" t="b">
         <v>1</v>
       </c>
-      <c r="K38">
-        <v>0.1</v>
+      <c r="K38" t="s">
+        <v>78</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="N38">
-        <v>1534128637</v>
+        <v>1534128645</v>
       </c>
       <c r="O38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
-      <c r="Q38" s="8"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B39" t="s">
         <v>206</v>
       </c>
       <c r="C39" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D39" s="9">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="F39" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G39">
-        <v>1200</v>
+        <v>10</v>
       </c>
       <c r="H39" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>10</v>
       </c>
       <c r="J39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
-        <v>0.1</v>
-      </c>
-      <c r="L39">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="L39" t="s">
+        <v>78</v>
       </c>
       <c r="N39">
-        <v>1534128637</v>
+        <v>1534128646</v>
       </c>
       <c r="O39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
-      <c r="Q39" s="8"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>302</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>223</v>
+        <v>214</v>
+      </c>
+      <c r="D40" s="9">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>212</v>
+      </c>
+      <c r="F40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40" s="9">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>10</v>
+      </c>
+      <c r="N40">
+        <v>1534128646</v>
+      </c>
+      <c r="O40" t="s">
+        <v>254</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="B41" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="9">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F41" t="s">
+        <v>213</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41" s="9">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>10</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>78</v>
+      </c>
+      <c r="O41" t="s">
+        <v>254</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>316</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="9">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F42" t="s">
+        <v>213</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42" s="9">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>10</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>254</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>255</v>
+      </c>
+      <c r="B43" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="9">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>213</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43" s="9">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>12.32</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>10</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>266</v>
+      </c>
+      <c r="N43">
+        <v>1534128637</v>
+      </c>
+      <c r="O43" t="s">
+        <v>254</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>303</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="9">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>213</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44" s="9">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>12.32</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>10</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>266</v>
+      </c>
+      <c r="N44">
+        <v>1534128637</v>
+      </c>
+      <c r="O44" t="s">
+        <v>254</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>275</v>
+      </c>
+      <c r="B45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="9">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" t="s">
+        <v>268</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" s="9">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>12.32</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>10</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
+        <v>266</v>
+      </c>
+      <c r="N45">
+        <v>1534128639</v>
+      </c>
+      <c r="O45" t="s">
+        <v>254</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>304</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" s="9">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>268</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46" s="9">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>12.32</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>10</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
+        <v>266</v>
+      </c>
+      <c r="N46">
+        <v>1534128639</v>
+      </c>
+      <c r="O46" t="s">
+        <v>254</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>277</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" s="9">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47" s="9">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>12.32</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>10</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47" t="s">
+        <v>266</v>
+      </c>
+      <c r="N47">
+        <v>1534128640</v>
+      </c>
+      <c r="O47" t="s">
+        <v>254</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>305</v>
+      </c>
+      <c r="B48" t="s">
+        <v>206</v>
+      </c>
+      <c r="C48" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" s="9">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48" s="9">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>12.32</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>10</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
+        <v>266</v>
+      </c>
+      <c r="N48">
+        <v>1534128640</v>
+      </c>
+      <c r="O48" t="s">
+        <v>254</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>276</v>
+      </c>
+      <c r="B49" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="9">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>268</v>
+      </c>
+      <c r="G49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" s="9">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>12.32</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>10</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49" t="s">
+        <v>266</v>
+      </c>
+      <c r="N49">
+        <v>1534128641</v>
+      </c>
+      <c r="O49" t="s">
+        <v>254</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>306</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" s="9">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>268</v>
+      </c>
+      <c r="H50" s="9">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>12.32</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>10</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
+        <v>266</v>
+      </c>
+      <c r="N50">
+        <v>1534128641</v>
+      </c>
+      <c r="O50" t="s">
+        <v>254</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>256</v>
+      </c>
+      <c r="B51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" t="s">
+        <v>214</v>
+      </c>
+      <c r="D51" s="9">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>268</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I51">
+        <v>12.32</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>10</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51" t="s">
+        <v>266</v>
+      </c>
+      <c r="N51">
+        <v>1534128642</v>
+      </c>
+      <c r="O51" t="s">
+        <v>254</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>307</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="9">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>268</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>12.32</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>10</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
+        <v>266</v>
+      </c>
+      <c r="N52">
+        <v>1534128642</v>
+      </c>
+      <c r="O52" t="s">
+        <v>254</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>257</v>
+      </c>
+      <c r="B53" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="9">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>268</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53" s="9">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>10</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53" t="s">
+        <v>266</v>
+      </c>
+      <c r="N53">
+        <v>1534128643</v>
+      </c>
+      <c r="O53" t="s">
+        <v>254</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>308</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" s="9">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>268</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54" s="9">
+        <v>1</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>10</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54" t="s">
+        <v>266</v>
+      </c>
+      <c r="N54">
+        <v>1534128643</v>
+      </c>
+      <c r="O54" t="s">
+        <v>254</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>258</v>
+      </c>
+      <c r="B55" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" t="s">
+        <v>214</v>
+      </c>
+      <c r="D55" s="9">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>268</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55" s="9">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>12.32</v>
+      </c>
+      <c r="J55" t="s">
+        <v>78</v>
+      </c>
+      <c r="K55">
+        <v>10</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55" t="s">
+        <v>266</v>
+      </c>
+      <c r="N55">
+        <v>1534128644</v>
+      </c>
+      <c r="O55" t="s">
+        <v>254</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>309</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>214</v>
+      </c>
+      <c r="D56" s="9">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>268</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56" s="9">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>12.32</v>
+      </c>
+      <c r="K56">
+        <v>10</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56" t="s">
+        <v>266</v>
+      </c>
+      <c r="N56">
+        <v>1534128644</v>
+      </c>
+      <c r="O56" t="s">
+        <v>254</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>259</v>
+      </c>
+      <c r="B57" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" s="9">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>268</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57" s="9">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>10</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>78</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57" t="s">
+        <v>266</v>
+      </c>
+      <c r="N57">
+        <v>1534128645</v>
+      </c>
+      <c r="O57" t="s">
+        <v>254</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>310</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58" s="9">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>268</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58" s="9">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>10</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58" t="s">
+        <v>266</v>
+      </c>
+      <c r="N58">
+        <v>1534128645</v>
+      </c>
+      <c r="O58" t="s">
+        <v>254</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>260</v>
+      </c>
+      <c r="B59" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" s="9">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>268</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59" s="9">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>10</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>10</v>
+      </c>
+      <c r="L59" t="s">
+        <v>78</v>
+      </c>
+      <c r="M59" t="s">
+        <v>266</v>
+      </c>
+      <c r="N59">
+        <v>1534128646</v>
+      </c>
+      <c r="O59" t="s">
+        <v>254</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>311</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="9">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>268</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60" s="9">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>10</v>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>10</v>
+      </c>
+      <c r="M60" t="s">
+        <v>266</v>
+      </c>
+      <c r="N60">
+        <v>1534128646</v>
+      </c>
+      <c r="O60" t="s">
+        <v>254</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>261</v>
+      </c>
+      <c r="B61" t="s">
+        <v>206</v>
+      </c>
+      <c r="C61" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" s="9">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>268</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61" s="9">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>10</v>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>10</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61" t="s">
+        <v>266</v>
+      </c>
+      <c r="N61" t="s">
+        <v>78</v>
+      </c>
+      <c r="O61" t="s">
+        <v>254</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>312</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" s="9">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>268</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62" s="9">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>10</v>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>10</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62" t="s">
+        <v>266</v>
+      </c>
+      <c r="O62" t="s">
+        <v>254</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>274</v>
+      </c>
+      <c r="B63" t="s">
+        <v>206</v>
+      </c>
+      <c r="C63" t="s">
+        <v>214</v>
+      </c>
+      <c r="D63" s="9">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>268</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63" s="9">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>10</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>10</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63" t="s">
+        <v>267</v>
+      </c>
+      <c r="N63">
+        <v>1534128646</v>
+      </c>
+      <c r="O63" t="s">
+        <v>254</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="8"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>313</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" s="9">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>268</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64" s="9">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>10</v>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>10</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1534128646</v>
+      </c>
+      <c r="O64" t="s">
+        <v>254</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="8"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>229</v>
+      </c>
+      <c r="B65" t="s">
+        <v>206</v>
+      </c>
+      <c r="C65" t="s">
+        <v>223</v>
+      </c>
+      <c r="D65" s="9">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>224</v>
+      </c>
+      <c r="F65" t="s">
+        <v>213</v>
+      </c>
+      <c r="G65">
+        <v>12</v>
+      </c>
+      <c r="H65" s="9">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>10</v>
+      </c>
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>10</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>1534128637</v>
+      </c>
+      <c r="O65" t="s">
+        <v>254</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="8"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>230</v>
+      </c>
+      <c r="B66" t="s">
+        <v>206</v>
+      </c>
+      <c r="C66" t="s">
+        <v>223</v>
+      </c>
+      <c r="D66" s="9">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>226</v>
+      </c>
+      <c r="F66" t="s">
+        <v>213</v>
+      </c>
+      <c r="G66">
+        <v>1200</v>
+      </c>
+      <c r="H66" s="9">
+        <v>2</v>
+      </c>
+      <c r="I66">
+        <v>10</v>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0.1</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>1534128637</v>
+      </c>
+      <c r="O66" t="s">
+        <v>254</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="8"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>279</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>223</v>
+      </c>
+      <c r="D67" s="9">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>224</v>
+      </c>
+      <c r="F67" t="s">
+        <v>278</v>
+      </c>
+      <c r="G67">
+        <v>12</v>
+      </c>
+      <c r="H67" s="9">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>10</v>
+      </c>
+      <c r="J67" t="b">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>10</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1534128637</v>
+      </c>
+      <c r="O67" t="s">
+        <v>254</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="8"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>231</v>
+      </c>
+      <c r="B68" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" t="s">
+        <v>223</v>
+      </c>
+      <c r="D68" s="9">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>227</v>
+      </c>
+      <c r="F68" t="s">
+        <v>225</v>
+      </c>
+      <c r="G68">
+        <v>12</v>
+      </c>
+      <c r="H68" s="9">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>10</v>
+      </c>
+      <c r="J68" t="b">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>10</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1534128637</v>
+      </c>
+      <c r="O68" t="s">
+        <v>254</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="8"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>232</v>
+      </c>
+      <c r="B69" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" t="s">
+        <v>223</v>
+      </c>
+      <c r="D69" s="9">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>228</v>
+      </c>
+      <c r="F69" t="s">
+        <v>225</v>
+      </c>
+      <c r="G69">
+        <v>1200</v>
+      </c>
+      <c r="H69" s="9">
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>10</v>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0.1</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>1534128637</v>
+      </c>
+      <c r="O69" t="s">
+        <v>254</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="8"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>280</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" s="9">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>224</v>
+      </c>
+      <c r="F70" t="s">
+        <v>278</v>
+      </c>
+      <c r="G70">
+        <v>12</v>
+      </c>
+      <c r="H70" s="9">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>10</v>
+      </c>
+      <c r="J70" t="b">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>10</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1534128637</v>
+      </c>
+      <c r="O70" t="s">
+        <v>254</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="8"/>
+    </row>
+    <row r="71" spans="1:17" ht="17" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>317</v>
+      </c>
+      <c r="B71" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" s="9">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>268</v>
+      </c>
+      <c r="G71">
+        <v>12</v>
+      </c>
+      <c r="H71" s="9">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>10</v>
+      </c>
+      <c r="J71" t="b">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>10</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71" t="s">
+        <v>266</v>
+      </c>
+      <c r="N71">
+        <v>1534128637</v>
+      </c>
+      <c r="O71" t="s">
+        <v>254</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="14"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>262</v>
+      </c>
+      <c r="B72" t="s">
+        <v>206</v>
+      </c>
+      <c r="C72" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="9">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s">
+        <v>268</v>
+      </c>
+      <c r="G72">
+        <v>1200</v>
+      </c>
+      <c r="H72" s="9">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>10</v>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0.1</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72" t="s">
+        <v>283</v>
+      </c>
+      <c r="N72">
+        <v>1534128637</v>
+      </c>
+      <c r="O72" t="s">
+        <v>254</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="8"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>281</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>223</v>
+      </c>
+      <c r="D73" s="9">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>268</v>
+      </c>
+      <c r="G73">
+        <v>12</v>
+      </c>
+      <c r="H73" s="9">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>10</v>
+      </c>
+      <c r="J73" t="b">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>10</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73" t="s">
+        <v>282</v>
+      </c>
+      <c r="N73">
+        <v>1534128637</v>
+      </c>
+      <c r="O73" t="s">
+        <v>254</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="8"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>322</v>
+      </c>
+      <c r="B74" t="s">
         <v>95</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C74" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>323</v>
+      </c>
+      <c r="B75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" t="s">
         <v>214</v>
       </c>
     </row>
@@ -6216,4 +8037,22 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/autoPortTest/testFile/case/userCase.xlsx
+++ b/autoPortTest/testFile/case/userCase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-200" yWindow="460" windowWidth="38400" windowHeight="14240" activeTab="4"/>
+    <workbookView xWindow="140" yWindow="700" windowWidth="25600" windowHeight="14240" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="ico" sheetId="2" r:id="rId3"/>
     <sheet name="wallet" sheetId="3" r:id="rId4"/>
     <sheet name="manual_exchange" sheetId="5" r:id="rId5"/>
-    <sheet name="工作表1" sheetId="6" r:id="rId6"/>
+    <sheet name="auto_exchange" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="418">
   <si>
     <t>case_name</t>
   </si>
@@ -1301,6 +1301,372 @@
   </si>
   <si>
     <t>delete_all_btc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>encrypted_api_key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>require_api_key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>require_third_key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>third_key_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QWeOFrHGpmX/SzUQ7v2kQlLAnIsqCjLr93M6hfHGmIWfjJ2eDmk10Vh+Ls31U4Zr</t>
+  </si>
+  <si>
+    <t>XG2l5gAt4RJkgOtaYsjrogPPspaLjxF0mHZgldCBtbDYa6gKYQbm83SKvUm+x3FD</t>
+  </si>
+  <si>
+    <t>huobi</t>
+  </si>
+  <si>
+    <t>Huobi Pro</t>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwee</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange_guid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>encrypted_api_secret</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>require_api_secret</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>support_qr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>language</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance_type required</t>
+  </si>
+  <si>
+    <t>coin_counts required</t>
+  </si>
+  <si>
+    <t>encrypted_api_key required</t>
+  </si>
+  <si>
+    <t>encrypted_api_secret required</t>
+  </si>
+  <si>
+    <t>exchange_guid required</t>
+  </si>
+  <si>
+    <t>balance_null_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance_empty_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance_wrong_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>encrypted_api_key_null_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>encrypted_api_key_wrong_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>encrypted_api_secret_null_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>encrypted_api_secret_empty_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>encrypted_api_secret_wrong_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange_guid_null_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange_guid_empty_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange_guid_wrong_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>require_api_key_null_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>require_api_key_empty_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>require_api_secret_null_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>require_api_secret_empty_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>require_third_key_null_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>require_third_key_empty_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>support_qr_null_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>support_qr_empty_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>third_key_name_null_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>third_key_name_empty_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>third_key_name_wrong_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_null_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_empty_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_null_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_empty_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>encrypted_api_key_empty_zh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance type error</t>
+  </si>
+  <si>
+    <t>balance_null_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance_empty_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance_wrong_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>encrypted_api_key_null_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>encrypted_api_key_empty_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>encrypted_api_key_wrong_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>encrypted_api_secret_null_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>encrypted_api_secret_empty_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>encrypted_api_secret_wrong_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange_guid_null_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange_guid_empty_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange_guid_wrong_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>require_api_key_null_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>require_api_key_empty_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>require_api_secret_null_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>require_api_secret_empty_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>require_third_key_null_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>require_third_key_empty_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>support_qr_null_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>support_qr_empty_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>third_key_name_null_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>third_key_name_empty_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>third_key_name_wrong_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_null_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_empty_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_null_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_empty_en</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4421,11 +4787,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8041,17 +8407,2284 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD52"/>
+    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J2" t="s">
+        <v>353</v>
+      </c>
+      <c r="L2" t="s">
+        <v>334</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G3" t="s">
+        <v>347</v>
+      </c>
+      <c r="H3" t="s">
+        <v>348</v>
+      </c>
+      <c r="I3" t="s">
+        <v>351</v>
+      </c>
+      <c r="J3" t="s">
+        <v>353</v>
+      </c>
+      <c r="L3" t="s">
+        <v>334</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G4" t="s">
+        <v>347</v>
+      </c>
+      <c r="H4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I4" t="s">
+        <v>351</v>
+      </c>
+      <c r="J4" t="s">
+        <v>353</v>
+      </c>
+      <c r="L4" t="s">
+        <v>334</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5" t="s">
+        <v>347</v>
+      </c>
+      <c r="H5" t="s">
+        <v>348</v>
+      </c>
+      <c r="I5" t="s">
+        <v>351</v>
+      </c>
+      <c r="J5" t="s">
+        <v>353</v>
+      </c>
+      <c r="L5" t="s">
+        <v>334</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G6" t="s">
+        <v>347</v>
+      </c>
+      <c r="H6" t="s">
+        <v>348</v>
+      </c>
+      <c r="I6" t="s">
+        <v>351</v>
+      </c>
+      <c r="J6" t="s">
+        <v>353</v>
+      </c>
+      <c r="L6" t="s">
+        <v>334</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H7" t="s">
+        <v>348</v>
+      </c>
+      <c r="I7" t="s">
+        <v>351</v>
+      </c>
+      <c r="J7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L7" t="s">
+        <v>334</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>331</v>
+      </c>
+      <c r="E8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8" t="s">
+        <v>347</v>
+      </c>
+      <c r="H8" t="s">
+        <v>348</v>
+      </c>
+      <c r="I8" t="s">
+        <v>351</v>
+      </c>
+      <c r="J8" t="s">
+        <v>353</v>
+      </c>
+      <c r="L8" t="s">
+        <v>334</v>
+      </c>
+      <c r="M8">
+        <v>12</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G9" t="s">
+        <v>347</v>
+      </c>
+      <c r="H9" t="s">
+        <v>348</v>
+      </c>
+      <c r="I9" t="s">
+        <v>351</v>
+      </c>
+      <c r="J9" t="s">
+        <v>353</v>
+      </c>
+      <c r="L9" t="s">
+        <v>334</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>331</v>
+      </c>
+      <c r="E10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F10" t="s">
+        <v>333</v>
+      </c>
+      <c r="G10" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" t="s">
+        <v>348</v>
+      </c>
+      <c r="I10" t="s">
+        <v>351</v>
+      </c>
+      <c r="J10" t="s">
+        <v>353</v>
+      </c>
+      <c r="L10" t="s">
+        <v>334</v>
+      </c>
+      <c r="M10">
+        <v>12</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>331</v>
+      </c>
+      <c r="E11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F11" t="s">
+        <v>343</v>
+      </c>
+      <c r="G11" t="s">
+        <v>347</v>
+      </c>
+      <c r="H11" t="s">
+        <v>348</v>
+      </c>
+      <c r="I11" t="s">
+        <v>351</v>
+      </c>
+      <c r="J11" t="s">
+        <v>353</v>
+      </c>
+      <c r="L11" t="s">
+        <v>334</v>
+      </c>
+      <c r="M11">
+        <v>12</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>372</v>
+      </c>
+      <c r="B12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12" t="s">
+        <v>332</v>
+      </c>
+      <c r="G12" t="s">
+        <v>347</v>
+      </c>
+      <c r="H12" t="s">
+        <v>348</v>
+      </c>
+      <c r="I12" t="s">
+        <v>351</v>
+      </c>
+      <c r="J12" t="s">
+        <v>353</v>
+      </c>
+      <c r="L12" t="s">
+        <v>334</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>373</v>
+      </c>
+      <c r="B13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" t="s">
+        <v>338</v>
+      </c>
+      <c r="G13" t="s">
+        <v>347</v>
+      </c>
+      <c r="H13" t="s">
+        <v>348</v>
+      </c>
+      <c r="I13" t="s">
+        <v>351</v>
+      </c>
+      <c r="J13" t="s">
+        <v>353</v>
+      </c>
+      <c r="L13" t="s">
+        <v>334</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>374</v>
+      </c>
+      <c r="B14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>331</v>
+      </c>
+      <c r="E14" t="s">
+        <v>332</v>
+      </c>
+      <c r="F14" t="s">
+        <v>333</v>
+      </c>
+      <c r="G14" t="s">
+        <v>339</v>
+      </c>
+      <c r="H14" t="s">
+        <v>348</v>
+      </c>
+      <c r="I14" t="s">
+        <v>351</v>
+      </c>
+      <c r="J14" t="s">
+        <v>353</v>
+      </c>
+      <c r="L14" t="s">
+        <v>334</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>331</v>
+      </c>
+      <c r="E15" t="s">
+        <v>332</v>
+      </c>
+      <c r="F15" t="s">
+        <v>333</v>
+      </c>
+      <c r="H15" t="s">
+        <v>348</v>
+      </c>
+      <c r="I15" t="s">
+        <v>351</v>
+      </c>
+      <c r="J15" t="s">
+        <v>353</v>
+      </c>
+      <c r="L15" t="s">
+        <v>334</v>
+      </c>
+      <c r="M15">
+        <v>12</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>376</v>
+      </c>
+      <c r="B16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>331</v>
+      </c>
+      <c r="E16" t="s">
+        <v>332</v>
+      </c>
+      <c r="F16" t="s">
+        <v>333</v>
+      </c>
+      <c r="G16" t="s">
+        <v>349</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s">
+        <v>351</v>
+      </c>
+      <c r="J16" t="s">
+        <v>353</v>
+      </c>
+      <c r="L16" t="s">
+        <v>334</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>377</v>
+      </c>
+      <c r="B17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>331</v>
+      </c>
+      <c r="E17" t="s">
+        <v>332</v>
+      </c>
+      <c r="F17" t="s">
+        <v>333</v>
+      </c>
+      <c r="G17" t="s">
+        <v>349</v>
+      </c>
+      <c r="I17" t="s">
+        <v>351</v>
+      </c>
+      <c r="J17" t="s">
+        <v>353</v>
+      </c>
+      <c r="L17" t="s">
+        <v>334</v>
+      </c>
+      <c r="M17">
+        <v>12</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>378</v>
+      </c>
+      <c r="B18" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>331</v>
+      </c>
+      <c r="E18" t="s">
+        <v>332</v>
+      </c>
+      <c r="F18" t="s">
+        <v>333</v>
+      </c>
+      <c r="G18" t="s">
+        <v>349</v>
+      </c>
+      <c r="H18" t="s">
+        <v>350</v>
+      </c>
+      <c r="I18" t="s">
+        <v>340</v>
+      </c>
+      <c r="J18" t="s">
+        <v>353</v>
+      </c>
+      <c r="L18" t="s">
+        <v>334</v>
+      </c>
+      <c r="M18">
+        <v>12</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>379</v>
+      </c>
+      <c r="B19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>331</v>
+      </c>
+      <c r="E19" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" t="s">
+        <v>333</v>
+      </c>
+      <c r="G19" t="s">
+        <v>349</v>
+      </c>
+      <c r="H19" t="s">
+        <v>350</v>
+      </c>
+      <c r="J19" t="s">
+        <v>353</v>
+      </c>
+      <c r="L19" t="s">
+        <v>334</v>
+      </c>
+      <c r="M19">
+        <v>12</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>380</v>
+      </c>
+      <c r="B20" t="s">
+        <v>324</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>331</v>
+      </c>
+      <c r="E20" t="s">
+        <v>332</v>
+      </c>
+      <c r="F20" t="s">
+        <v>333</v>
+      </c>
+      <c r="G20" t="s">
+        <v>349</v>
+      </c>
+      <c r="H20" t="s">
+        <v>350</v>
+      </c>
+      <c r="I20" t="s">
+        <v>352</v>
+      </c>
+      <c r="J20" t="s">
+        <v>341</v>
+      </c>
+      <c r="L20" t="s">
+        <v>334</v>
+      </c>
+      <c r="M20">
+        <v>12</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21" t="s">
+        <v>324</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>331</v>
+      </c>
+      <c r="E21" t="s">
+        <v>332</v>
+      </c>
+      <c r="F21" t="s">
+        <v>333</v>
+      </c>
+      <c r="G21" t="s">
+        <v>349</v>
+      </c>
+      <c r="H21" t="s">
+        <v>350</v>
+      </c>
+      <c r="I21" t="s">
+        <v>352</v>
+      </c>
+      <c r="L21" t="s">
+        <v>334</v>
+      </c>
+      <c r="M21">
+        <v>12</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>382</v>
+      </c>
+      <c r="B22" t="s">
+        <v>324</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>331</v>
+      </c>
+      <c r="E22" t="s">
+        <v>332</v>
+      </c>
+      <c r="F22" t="s">
+        <v>333</v>
+      </c>
+      <c r="G22" t="s">
+        <v>349</v>
+      </c>
+      <c r="H22" t="s">
+        <v>350</v>
+      </c>
+      <c r="I22" t="s">
+        <v>352</v>
+      </c>
+      <c r="J22" t="s">
+        <v>353</v>
+      </c>
+      <c r="K22" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" t="s">
+        <v>334</v>
+      </c>
+      <c r="M22">
+        <v>12</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>383</v>
+      </c>
+      <c r="B23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>331</v>
+      </c>
+      <c r="E23" t="s">
+        <v>332</v>
+      </c>
+      <c r="F23" t="s">
+        <v>333</v>
+      </c>
+      <c r="G23" t="s">
+        <v>349</v>
+      </c>
+      <c r="H23" t="s">
+        <v>350</v>
+      </c>
+      <c r="I23" t="s">
+        <v>352</v>
+      </c>
+      <c r="J23" t="s">
+        <v>353</v>
+      </c>
+      <c r="L23" t="s">
+        <v>334</v>
+      </c>
+      <c r="M23">
+        <v>12</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>384</v>
+      </c>
+      <c r="B24" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>331</v>
+      </c>
+      <c r="E24" t="s">
+        <v>332</v>
+      </c>
+      <c r="F24" t="s">
+        <v>333</v>
+      </c>
+      <c r="G24" t="s">
+        <v>349</v>
+      </c>
+      <c r="H24" t="s">
+        <v>350</v>
+      </c>
+      <c r="I24" t="s">
+        <v>352</v>
+      </c>
+      <c r="J24" t="s">
+        <v>353</v>
+      </c>
+      <c r="K24" t="s">
+        <v>342</v>
+      </c>
+      <c r="L24" t="s">
+        <v>334</v>
+      </c>
+      <c r="M24">
+        <v>12</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>385</v>
+      </c>
+      <c r="B25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>331</v>
+      </c>
+      <c r="E25" t="s">
+        <v>332</v>
+      </c>
+      <c r="F25" t="s">
+        <v>333</v>
+      </c>
+      <c r="G25" t="s">
+        <v>349</v>
+      </c>
+      <c r="H25" t="s">
+        <v>350</v>
+      </c>
+      <c r="I25" t="s">
+        <v>352</v>
+      </c>
+      <c r="J25" t="s">
+        <v>353</v>
+      </c>
+      <c r="L25" t="s">
+        <v>328</v>
+      </c>
+      <c r="M25">
+        <v>12</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>386</v>
+      </c>
+      <c r="B26" t="s">
+        <v>324</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>331</v>
+      </c>
+      <c r="E26" t="s">
+        <v>332</v>
+      </c>
+      <c r="F26" t="s">
+        <v>333</v>
+      </c>
+      <c r="G26" t="s">
+        <v>349</v>
+      </c>
+      <c r="H26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I26" t="s">
+        <v>352</v>
+      </c>
+      <c r="J26" t="s">
+        <v>353</v>
+      </c>
+      <c r="M26">
+        <v>12</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>387</v>
+      </c>
+      <c r="B27" t="s">
+        <v>324</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>331</v>
+      </c>
+      <c r="E27" t="s">
+        <v>332</v>
+      </c>
+      <c r="F27" t="s">
+        <v>333</v>
+      </c>
+      <c r="G27" t="s">
+        <v>349</v>
+      </c>
+      <c r="H27" t="s">
+        <v>350</v>
+      </c>
+      <c r="I27" t="s">
+        <v>352</v>
+      </c>
+      <c r="J27" t="s">
+        <v>353</v>
+      </c>
+      <c r="L27" t="s">
+        <v>334</v>
+      </c>
+      <c r="M27" t="s">
+        <v>340</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>388</v>
+      </c>
+      <c r="B28" t="s">
+        <v>324</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E28" t="s">
+        <v>332</v>
+      </c>
+      <c r="F28" t="s">
+        <v>333</v>
+      </c>
+      <c r="G28" t="s">
+        <v>349</v>
+      </c>
+      <c r="H28" t="s">
+        <v>350</v>
+      </c>
+      <c r="I28" t="s">
+        <v>352</v>
+      </c>
+      <c r="J28" t="s">
+        <v>353</v>
+      </c>
+      <c r="L28" t="s">
+        <v>334</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>391</v>
+      </c>
+      <c r="B29" t="s">
+        <v>324</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
+        <v>331</v>
+      </c>
+      <c r="E29" t="s">
+        <v>332</v>
+      </c>
+      <c r="F29" t="s">
+        <v>333</v>
+      </c>
+      <c r="G29" t="s">
+        <v>347</v>
+      </c>
+      <c r="H29" t="s">
+        <v>348</v>
+      </c>
+      <c r="I29" t="s">
+        <v>351</v>
+      </c>
+      <c r="J29" t="s">
+        <v>353</v>
+      </c>
+      <c r="L29" t="s">
+        <v>334</v>
+      </c>
+      <c r="M29">
+        <v>12</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>392</v>
+      </c>
+      <c r="B30" t="s">
+        <v>324</v>
+      </c>
+      <c r="D30" t="s">
+        <v>331</v>
+      </c>
+      <c r="E30" t="s">
+        <v>332</v>
+      </c>
+      <c r="F30" t="s">
+        <v>333</v>
+      </c>
+      <c r="G30" t="s">
+        <v>347</v>
+      </c>
+      <c r="H30" t="s">
+        <v>348</v>
+      </c>
+      <c r="I30" t="s">
+        <v>351</v>
+      </c>
+      <c r="J30" t="s">
+        <v>353</v>
+      </c>
+      <c r="L30" t="s">
+        <v>334</v>
+      </c>
+      <c r="M30">
+        <v>12</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>393</v>
+      </c>
+      <c r="B31" t="s">
+        <v>324</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>331</v>
+      </c>
+      <c r="E31" t="s">
+        <v>332</v>
+      </c>
+      <c r="F31" t="s">
+        <v>333</v>
+      </c>
+      <c r="G31" t="s">
+        <v>347</v>
+      </c>
+      <c r="H31" t="s">
+        <v>348</v>
+      </c>
+      <c r="I31" t="s">
+        <v>351</v>
+      </c>
+      <c r="J31" t="s">
+        <v>353</v>
+      </c>
+      <c r="L31" t="s">
+        <v>334</v>
+      </c>
+      <c r="M31">
+        <v>12</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>394</v>
+      </c>
+      <c r="B32" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>335</v>
+      </c>
+      <c r="E32" t="s">
+        <v>332</v>
+      </c>
+      <c r="F32" t="s">
+        <v>333</v>
+      </c>
+      <c r="G32" t="s">
+        <v>347</v>
+      </c>
+      <c r="H32" t="s">
+        <v>348</v>
+      </c>
+      <c r="I32" t="s">
+        <v>351</v>
+      </c>
+      <c r="J32" t="s">
+        <v>353</v>
+      </c>
+      <c r="L32" t="s">
+        <v>334</v>
+      </c>
+      <c r="M32">
+        <v>12</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>395</v>
+      </c>
+      <c r="B33" t="s">
+        <v>324</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>332</v>
+      </c>
+      <c r="F33" t="s">
+        <v>333</v>
+      </c>
+      <c r="G33" t="s">
+        <v>347</v>
+      </c>
+      <c r="H33" t="s">
+        <v>348</v>
+      </c>
+      <c r="I33" t="s">
+        <v>351</v>
+      </c>
+      <c r="J33" t="s">
+        <v>353</v>
+      </c>
+      <c r="L33" t="s">
+        <v>334</v>
+      </c>
+      <c r="M33">
+        <v>12</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>396</v>
+      </c>
+      <c r="B34" t="s">
+        <v>324</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>336</v>
+      </c>
+      <c r="E34" t="s">
+        <v>332</v>
+      </c>
+      <c r="F34" t="s">
+        <v>333</v>
+      </c>
+      <c r="G34" t="s">
+        <v>347</v>
+      </c>
+      <c r="H34" t="s">
+        <v>348</v>
+      </c>
+      <c r="I34" t="s">
+        <v>351</v>
+      </c>
+      <c r="J34" t="s">
+        <v>353</v>
+      </c>
+      <c r="L34" t="s">
+        <v>334</v>
+      </c>
+      <c r="M34">
+        <v>12</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>397</v>
+      </c>
+      <c r="B35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>331</v>
+      </c>
+      <c r="E35" t="s">
+        <v>328</v>
+      </c>
+      <c r="F35" t="s">
+        <v>333</v>
+      </c>
+      <c r="G35" t="s">
+        <v>347</v>
+      </c>
+      <c r="H35" t="s">
+        <v>348</v>
+      </c>
+      <c r="I35" t="s">
+        <v>351</v>
+      </c>
+      <c r="J35" t="s">
+        <v>353</v>
+      </c>
+      <c r="L35" t="s">
+        <v>334</v>
+      </c>
+      <c r="M35">
+        <v>12</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>398</v>
+      </c>
+      <c r="B36" t="s">
+        <v>324</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>331</v>
+      </c>
+      <c r="F36" t="s">
+        <v>333</v>
+      </c>
+      <c r="G36" t="s">
+        <v>347</v>
+      </c>
+      <c r="H36" t="s">
+        <v>348</v>
+      </c>
+      <c r="I36" t="s">
+        <v>351</v>
+      </c>
+      <c r="J36" t="s">
+        <v>353</v>
+      </c>
+      <c r="L36" t="s">
+        <v>334</v>
+      </c>
+      <c r="M36">
+        <v>12</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>399</v>
+      </c>
+      <c r="B37" t="s">
+        <v>324</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>331</v>
+      </c>
+      <c r="E37" t="s">
+        <v>337</v>
+      </c>
+      <c r="F37" t="s">
+        <v>333</v>
+      </c>
+      <c r="G37" t="s">
+        <v>347</v>
+      </c>
+      <c r="H37" t="s">
+        <v>348</v>
+      </c>
+      <c r="I37" t="s">
+        <v>351</v>
+      </c>
+      <c r="J37" t="s">
+        <v>353</v>
+      </c>
+      <c r="L37" t="s">
+        <v>334</v>
+      </c>
+      <c r="M37">
+        <v>12</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>400</v>
+      </c>
+      <c r="B38" t="s">
+        <v>324</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>331</v>
+      </c>
+      <c r="E38" t="s">
+        <v>332</v>
+      </c>
+      <c r="F38" t="s">
+        <v>343</v>
+      </c>
+      <c r="G38" t="s">
+        <v>347</v>
+      </c>
+      <c r="H38" t="s">
+        <v>348</v>
+      </c>
+      <c r="I38" t="s">
+        <v>351</v>
+      </c>
+      <c r="J38" t="s">
+        <v>353</v>
+      </c>
+      <c r="L38" t="s">
+        <v>334</v>
+      </c>
+      <c r="M38">
+        <v>12</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>401</v>
+      </c>
+      <c r="B39" t="s">
+        <v>324</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>331</v>
+      </c>
+      <c r="E39" t="s">
+        <v>332</v>
+      </c>
+      <c r="G39" t="s">
+        <v>347</v>
+      </c>
+      <c r="H39" t="s">
+        <v>348</v>
+      </c>
+      <c r="I39" t="s">
+        <v>351</v>
+      </c>
+      <c r="J39" t="s">
+        <v>353</v>
+      </c>
+      <c r="L39" t="s">
+        <v>334</v>
+      </c>
+      <c r="M39">
+        <v>12</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>402</v>
+      </c>
+      <c r="B40" t="s">
+        <v>324</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>331</v>
+      </c>
+      <c r="E40" t="s">
+        <v>332</v>
+      </c>
+      <c r="F40" t="s">
+        <v>338</v>
+      </c>
+      <c r="G40" t="s">
+        <v>347</v>
+      </c>
+      <c r="H40" t="s">
+        <v>348</v>
+      </c>
+      <c r="I40" t="s">
+        <v>351</v>
+      </c>
+      <c r="J40" t="s">
+        <v>353</v>
+      </c>
+      <c r="L40" t="s">
+        <v>334</v>
+      </c>
+      <c r="M40">
+        <v>12</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>403</v>
+      </c>
+      <c r="B41" t="s">
+        <v>324</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>331</v>
+      </c>
+      <c r="E41" t="s">
+        <v>332</v>
+      </c>
+      <c r="F41" t="s">
+        <v>333</v>
+      </c>
+      <c r="G41" t="s">
+        <v>339</v>
+      </c>
+      <c r="H41" t="s">
+        <v>348</v>
+      </c>
+      <c r="I41" t="s">
+        <v>351</v>
+      </c>
+      <c r="J41" t="s">
+        <v>353</v>
+      </c>
+      <c r="L41" t="s">
+        <v>334</v>
+      </c>
+      <c r="M41">
+        <v>12</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>404</v>
+      </c>
+      <c r="B42" t="s">
+        <v>324</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>331</v>
+      </c>
+      <c r="E42" t="s">
+        <v>332</v>
+      </c>
+      <c r="F42" t="s">
+        <v>333</v>
+      </c>
+      <c r="H42" t="s">
+        <v>348</v>
+      </c>
+      <c r="I42" t="s">
+        <v>351</v>
+      </c>
+      <c r="J42" t="s">
+        <v>353</v>
+      </c>
+      <c r="L42" t="s">
+        <v>334</v>
+      </c>
+      <c r="M42">
+        <v>12</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>405</v>
+      </c>
+      <c r="B43" t="s">
+        <v>324</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>331</v>
+      </c>
+      <c r="E43" t="s">
+        <v>332</v>
+      </c>
+      <c r="F43" t="s">
+        <v>333</v>
+      </c>
+      <c r="G43" t="s">
+        <v>349</v>
+      </c>
+      <c r="H43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43" t="s">
+        <v>351</v>
+      </c>
+      <c r="J43" t="s">
+        <v>353</v>
+      </c>
+      <c r="L43" t="s">
+        <v>334</v>
+      </c>
+      <c r="M43">
+        <v>12</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>406</v>
+      </c>
+      <c r="B44" t="s">
+        <v>324</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>331</v>
+      </c>
+      <c r="E44" t="s">
+        <v>332</v>
+      </c>
+      <c r="F44" t="s">
+        <v>333</v>
+      </c>
+      <c r="G44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I44" t="s">
+        <v>351</v>
+      </c>
+      <c r="J44" t="s">
+        <v>353</v>
+      </c>
+      <c r="L44" t="s">
+        <v>334</v>
+      </c>
+      <c r="M44">
+        <v>12</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>407</v>
+      </c>
+      <c r="B45" t="s">
+        <v>324</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>331</v>
+      </c>
+      <c r="E45" t="s">
+        <v>332</v>
+      </c>
+      <c r="F45" t="s">
+        <v>333</v>
+      </c>
+      <c r="G45" t="s">
+        <v>349</v>
+      </c>
+      <c r="H45" t="s">
+        <v>350</v>
+      </c>
+      <c r="I45" t="s">
+        <v>340</v>
+      </c>
+      <c r="J45" t="s">
+        <v>353</v>
+      </c>
+      <c r="L45" t="s">
+        <v>334</v>
+      </c>
+      <c r="M45">
+        <v>12</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>408</v>
+      </c>
+      <c r="B46" t="s">
+        <v>324</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>331</v>
+      </c>
+      <c r="E46" t="s">
+        <v>332</v>
+      </c>
+      <c r="F46" t="s">
+        <v>333</v>
+      </c>
+      <c r="G46" t="s">
+        <v>349</v>
+      </c>
+      <c r="H46" t="s">
+        <v>350</v>
+      </c>
+      <c r="J46" t="s">
+        <v>353</v>
+      </c>
+      <c r="L46" t="s">
+        <v>334</v>
+      </c>
+      <c r="M46">
+        <v>12</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>409</v>
+      </c>
+      <c r="B47" t="s">
+        <v>324</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>331</v>
+      </c>
+      <c r="E47" t="s">
+        <v>332</v>
+      </c>
+      <c r="F47" t="s">
+        <v>333</v>
+      </c>
+      <c r="G47" t="s">
+        <v>349</v>
+      </c>
+      <c r="H47" t="s">
+        <v>350</v>
+      </c>
+      <c r="I47" t="s">
+        <v>352</v>
+      </c>
+      <c r="J47" t="s">
+        <v>341</v>
+      </c>
+      <c r="L47" t="s">
+        <v>334</v>
+      </c>
+      <c r="M47">
+        <v>12</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>410</v>
+      </c>
+      <c r="B48" t="s">
+        <v>324</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>331</v>
+      </c>
+      <c r="E48" t="s">
+        <v>332</v>
+      </c>
+      <c r="F48" t="s">
+        <v>333</v>
+      </c>
+      <c r="G48" t="s">
+        <v>349</v>
+      </c>
+      <c r="H48" t="s">
+        <v>350</v>
+      </c>
+      <c r="I48" t="s">
+        <v>352</v>
+      </c>
+      <c r="L48" t="s">
+        <v>334</v>
+      </c>
+      <c r="M48">
+        <v>12</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>411</v>
+      </c>
+      <c r="B49" t="s">
+        <v>324</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>331</v>
+      </c>
+      <c r="E49" t="s">
+        <v>332</v>
+      </c>
+      <c r="F49" t="s">
+        <v>333</v>
+      </c>
+      <c r="G49" t="s">
+        <v>349</v>
+      </c>
+      <c r="H49" t="s">
+        <v>350</v>
+      </c>
+      <c r="I49" t="s">
+        <v>352</v>
+      </c>
+      <c r="J49" t="s">
+        <v>353</v>
+      </c>
+      <c r="K49" t="s">
+        <v>78</v>
+      </c>
+      <c r="L49" t="s">
+        <v>334</v>
+      </c>
+      <c r="M49">
+        <v>12</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>412</v>
+      </c>
+      <c r="B50" t="s">
+        <v>324</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>331</v>
+      </c>
+      <c r="E50" t="s">
+        <v>332</v>
+      </c>
+      <c r="F50" t="s">
+        <v>333</v>
+      </c>
+      <c r="G50" t="s">
+        <v>349</v>
+      </c>
+      <c r="H50" t="s">
+        <v>350</v>
+      </c>
+      <c r="I50" t="s">
+        <v>352</v>
+      </c>
+      <c r="J50" t="s">
+        <v>353</v>
+      </c>
+      <c r="L50" t="s">
+        <v>334</v>
+      </c>
+      <c r="M50">
+        <v>12</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>413</v>
+      </c>
+      <c r="B51" t="s">
+        <v>324</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>331</v>
+      </c>
+      <c r="E51" t="s">
+        <v>332</v>
+      </c>
+      <c r="F51" t="s">
+        <v>333</v>
+      </c>
+      <c r="G51" t="s">
+        <v>349</v>
+      </c>
+      <c r="H51" t="s">
+        <v>350</v>
+      </c>
+      <c r="I51" t="s">
+        <v>352</v>
+      </c>
+      <c r="J51" t="s">
+        <v>353</v>
+      </c>
+      <c r="K51" t="s">
+        <v>342</v>
+      </c>
+      <c r="L51" t="s">
+        <v>334</v>
+      </c>
+      <c r="M51">
+        <v>12</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>414</v>
+      </c>
+      <c r="B52" t="s">
+        <v>324</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>331</v>
+      </c>
+      <c r="E52" t="s">
+        <v>332</v>
+      </c>
+      <c r="F52" t="s">
+        <v>333</v>
+      </c>
+      <c r="G52" t="s">
+        <v>349</v>
+      </c>
+      <c r="H52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I52" t="s">
+        <v>352</v>
+      </c>
+      <c r="J52" t="s">
+        <v>353</v>
+      </c>
+      <c r="L52" t="s">
+        <v>328</v>
+      </c>
+      <c r="M52">
+        <v>12</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>415</v>
+      </c>
+      <c r="B53" t="s">
+        <v>324</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>331</v>
+      </c>
+      <c r="E53" t="s">
+        <v>332</v>
+      </c>
+      <c r="F53" t="s">
+        <v>333</v>
+      </c>
+      <c r="G53" t="s">
+        <v>349</v>
+      </c>
+      <c r="H53" t="s">
+        <v>350</v>
+      </c>
+      <c r="I53" t="s">
+        <v>352</v>
+      </c>
+      <c r="J53" t="s">
+        <v>353</v>
+      </c>
+      <c r="M53">
+        <v>12</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>416</v>
+      </c>
+      <c r="B54" t="s">
+        <v>324</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>331</v>
+      </c>
+      <c r="E54" t="s">
+        <v>332</v>
+      </c>
+      <c r="F54" t="s">
+        <v>333</v>
+      </c>
+      <c r="G54" t="s">
+        <v>349</v>
+      </c>
+      <c r="H54" t="s">
+        <v>350</v>
+      </c>
+      <c r="I54" t="s">
+        <v>352</v>
+      </c>
+      <c r="J54" t="s">
+        <v>353</v>
+      </c>
+      <c r="L54" t="s">
+        <v>334</v>
+      </c>
+      <c r="M54" t="s">
+        <v>340</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>417</v>
+      </c>
+      <c r="B55" t="s">
+        <v>324</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>331</v>
+      </c>
+      <c r="E55" t="s">
+        <v>332</v>
+      </c>
+      <c r="F55" t="s">
+        <v>333</v>
+      </c>
+      <c r="G55" t="s">
+        <v>349</v>
+      </c>
+      <c r="H55" t="s">
+        <v>350</v>
+      </c>
+      <c r="I55" t="s">
+        <v>352</v>
+      </c>
+      <c r="J55" t="s">
+        <v>353</v>
+      </c>
+      <c r="L55" t="s">
+        <v>334</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/autoPortTest/testFile/case/userCase.xlsx
+++ b/autoPortTest/testFile/case/userCase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="140" yWindow="700" windowWidth="25600" windowHeight="14240" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="423">
   <si>
     <t>case_name</t>
   </si>
@@ -1667,6 +1667,26 @@
   </si>
   <si>
     <t>cost_empty_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_exchange_success</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QWeOFrHGpmX/SzUQ7v2kQlLAnIsqCjLr93M6hfHGmIWfjJ2eDmk10Vh+Ls31U4Zr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_all</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -8407,13 +8427,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -10684,6 +10704,55 @@
         <v>1</v>
       </c>
     </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>418</v>
+      </c>
+      <c r="B56" t="s">
+        <v>419</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>420</v>
+      </c>
+      <c r="E56" t="s">
+        <v>332</v>
+      </c>
+      <c r="F56" t="s">
+        <v>333</v>
+      </c>
+      <c r="G56" t="s">
+        <v>320</v>
+      </c>
+      <c r="H56" t="s">
+        <v>350</v>
+      </c>
+      <c r="I56" t="s">
+        <v>352</v>
+      </c>
+      <c r="J56" t="s">
+        <v>353</v>
+      </c>
+      <c r="L56" t="s">
+        <v>334</v>
+      </c>
+      <c r="M56">
+        <v>12</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>422</v>
+      </c>
+      <c r="B57" t="s">
+        <v>421</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
